--- a/1.Requirement List.xlsx
+++ b/1.Requirement List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.276.55868"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>회원은 자전거의 ID를 입력하여 특정 자전거를 대여 할 수 있다.</t>
+  </si>
+  <si>
+    <t>개인코드 : 23542</t>
+  </si>
+  <si>
+    <t>Github 주소 : https://github.com/hwarok/Bert</t>
   </si>
 </sst>
 </file>
@@ -985,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1002,11 +1008,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1014,21 +1017,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1036,10 +1036,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1047,10 +1047,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1058,10 +1058,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1069,9 +1069,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>19</v>
       </c>
     </row>
